--- a/Presentation 4/Traceability Link Matrix.xlsx
+++ b/Presentation 4/Traceability Link Matrix.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas Walter\Documents\GitHub\cs414-f17-301-UltraLiteCoding\Presentation 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>Board</t>
   </si>
@@ -38,15 +39,6 @@
     <t>Game</t>
   </si>
   <si>
-    <t>Invitation</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -90,12 +82,45 @@
   </si>
   <si>
     <t>View Profiles</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>ServerThread</t>
+  </si>
+  <si>
+    <t>ChatServer</t>
+  </si>
+  <si>
+    <t>ClientThread</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>BoardComponent</t>
+  </si>
+  <si>
+    <t>CreateAccount</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>GameBoard</t>
+  </si>
+  <si>
+    <t>TokenComponent</t>
+  </si>
+  <si>
+    <t>ViewProfile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,9 +480,21 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="24" width="10.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -486,90 +523,164 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -577,45 +688,69 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -623,94 +758,150 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="X9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>